--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="724">
   <si>
     <t>余额</t>
   </si>
@@ -2186,6 +2186,9 @@
   </si>
   <si>
     <t>自动还款-花呗2022年06月账单</t>
+  </si>
+  <si>
+    <t>金额中转：QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），说做抖音点赞任务可以赚钱，我就试了几个，下载了APP华晨媒体，后来又说银行卡转钱68，今天参加了一次，绑定了中国银行银行卡，返回了103，白薅了这些羊毛，类似这种：https://zhuanlan.zhihu.com/p/386091460 【联单任务工资安排如下 1 连续做满1.2.3单工资8元 2 连续做满4.5.6单工资14元 3 连续做满7.8.9单工资18元 4 连续做满10.11.12单工资23元 5 连续做满13.14.15单工资28元 6 连续做满16.17.18单工资38元 注意：(必须连续完任务，中途不可断）中断联系接待员补单，遵守补单规则】</t>
   </si>
 </sst>
 </file>
@@ -25098,7 +25101,7 @@
         <v>326</v>
       </c>
       <c r="E38" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -2035,88 +2035,88 @@
     <t>给妈买电话卡（山东电信自营无忧卡月基本费5元限购一件全国发货 号码归属地随机）</t>
   </si>
   <si>
+    <t>QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），说做抖音点赞任务可以赚钱，我就试了几个，下载了APP华晨媒体，后来又说银行卡转钱68，今天参加了一次，绑定了中国银行银行卡，返回了103，白薅了这些羊毛，类似这种：https://zhuanlan.zhihu.com/p/386091460 【联单任务工资安排如下 1 连续做满1.2.3单工资8元 2 连续做满4.5.6单工资14元 3 连续做满7.8.9单工资18元 4 连续做满10.11.12单工资23元 5 连续做满13.14.15单工资28元 6 连续做满16.17.18单工资38元 注意：(必须连续完任务，中途不可断）中断联系接待员补单，遵守补单规则】</t>
+  </si>
+  <si>
+    <t>QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），群里发的红包</t>
+  </si>
+  <si>
+    <t>贷款</t>
+  </si>
+  <si>
+    <t>理财投资</t>
+  </si>
+  <si>
+    <t>报销</t>
+  </si>
+  <si>
+    <t>中转</t>
+  </si>
+  <si>
+    <t>奖助学金</t>
+  </si>
+  <si>
+    <t>借还</t>
+  </si>
+  <si>
+    <t>学费</t>
+  </si>
+  <si>
+    <t>贷款扣除学费后反回</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>智能车报销</t>
+  </si>
+  <si>
+    <t>转账给黄春娇</t>
+  </si>
+  <si>
+    <t>情商奖学金</t>
+  </si>
+  <si>
+    <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
+  </si>
+  <si>
+    <t>2021.9-2022.1国家助学金</t>
+  </si>
+  <si>
+    <t>学霸寝室</t>
+  </si>
+  <si>
+    <t>中远海运科技创新个人</t>
+  </si>
+  <si>
+    <t>中远海运奖学金二等</t>
+  </si>
+  <si>
+    <t>刘彤借钱</t>
+  </si>
+  <si>
+    <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
+  </si>
+  <si>
+    <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
+  </si>
+  <si>
+    <t>2022.3国家助学金</t>
+  </si>
+  <si>
+    <t>2022.4国家助学金</t>
+  </si>
+  <si>
+    <t>2022届本科生结算学费</t>
+  </si>
+  <si>
+    <t>2022.5国家助学金</t>
+  </si>
+  <si>
+    <t>2022.6-7国家助学金</t>
+  </si>
+  <si>
     <t>5月23日和6月26日与妈测试转账功能</t>
-  </si>
-  <si>
-    <t>QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），说做抖音点赞任务可以赚钱，我就试了几个，下载了APP华晨媒体，后来又说银行卡转钱68，今天参加了一次，绑定了中国银行银行卡，返回了103，白薅了这些羊毛，类似这种：https://zhuanlan.zhihu.com/p/386091460 【联单任务工资安排如下 1 连续做满1.2.3单工资8元 2 连续做满4.5.6单工资14元 3 连续做满7.8.9单工资18元 4 连续做满10.11.12单工资23元 5 连续做满13.14.15单工资28元 6 连续做满16.17.18单工资38元 注意：(必须连续完任务，中途不可断）中断联系接待员补单，遵守补单规则】</t>
-  </si>
-  <si>
-    <t>QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），群里发的红包</t>
-  </si>
-  <si>
-    <t>贷款</t>
-  </si>
-  <si>
-    <t>理财投资</t>
-  </si>
-  <si>
-    <t>报销</t>
-  </si>
-  <si>
-    <t>中转</t>
-  </si>
-  <si>
-    <t>奖助学金</t>
-  </si>
-  <si>
-    <t>借还</t>
-  </si>
-  <si>
-    <t>学费</t>
-  </si>
-  <si>
-    <t>贷款扣除学费后反回</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>智能车报销</t>
-  </si>
-  <si>
-    <t>转账给黄春娇</t>
-  </si>
-  <si>
-    <t>情商奖学金</t>
-  </si>
-  <si>
-    <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
-  </si>
-  <si>
-    <t>2021.9-2022.1国家助学金</t>
-  </si>
-  <si>
-    <t>学霸寝室</t>
-  </si>
-  <si>
-    <t>中远海运科技创新个人</t>
-  </si>
-  <si>
-    <t>中远海运奖学金二等</t>
-  </si>
-  <si>
-    <t>刘彤借钱</t>
-  </si>
-  <si>
-    <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
-  </si>
-  <si>
-    <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
-  </si>
-  <si>
-    <t>2022.3国家助学金</t>
-  </si>
-  <si>
-    <t>2022.4国家助学金</t>
-  </si>
-  <si>
-    <t>2022届本科生结算学费</t>
-  </si>
-  <si>
-    <t>2022.5国家助学金</t>
-  </si>
-  <si>
-    <t>2022.6-7国家助学金</t>
   </si>
   <si>
     <t>源途径</t>
@@ -2628,7 +2628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1261"/>
+  <dimension ref="A1:E1260"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23937,27 +23937,27 @@
     </row>
     <row r="1254" spans="1:5">
       <c r="A1254">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="B1254" t="s">
         <v>16</v>
       </c>
       <c r="C1254" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D1254" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E1254" t="s">
-        <v>672</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1255" spans="1:5">
       <c r="A1255">
-        <v>0.16</v>
+        <v>0.38</v>
       </c>
       <c r="B1255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1255" t="s">
         <v>325</v>
@@ -23966,29 +23966,29 @@
         <v>330</v>
       </c>
       <c r="E1255" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
       <c r="A1256">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="B1256" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1256" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D1256" t="s">
         <v>330</v>
       </c>
       <c r="E1256" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
       <c r="A1257">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="B1257" t="s">
         <v>16</v>
@@ -23997,32 +23997,32 @@
         <v>326</v>
       </c>
       <c r="D1257" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E1257" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1258" spans="1:5">
       <c r="A1258">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="B1258" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1258" t="s">
         <v>326</v>
       </c>
       <c r="D1258" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E1258" t="s">
-        <v>471</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1259" spans="1:5">
       <c r="A1259">
-        <v>0.38</v>
+        <v>177</v>
       </c>
       <c r="B1259" t="s">
         <v>15</v>
@@ -24031,18 +24031,18 @@
         <v>326</v>
       </c>
       <c r="D1259" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E1259" t="s">
-        <v>354</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1260" spans="1:5">
       <c r="A1260">
-        <v>177</v>
+        <v>1.25</v>
       </c>
       <c r="B1260" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1260" t="s">
         <v>326</v>
@@ -24052,23 +24052,6 @@
       </c>
       <c r="E1260" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:5">
-      <c r="A1261">
-        <v>1.25</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -24078,7 +24061,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24112,10 +24095,10 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24129,10 +24112,10 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24146,10 +24129,10 @@
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24163,10 +24146,10 @@
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24180,10 +24163,10 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24197,10 +24180,10 @@
         <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24214,10 +24197,10 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24231,10 +24214,10 @@
         <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24248,10 +24231,10 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24265,10 +24248,10 @@
         <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24282,10 +24265,10 @@
         <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24299,10 +24282,10 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24316,10 +24299,10 @@
         <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24333,10 +24316,10 @@
         <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24350,10 +24333,10 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -24367,10 +24350,10 @@
         <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -24384,10 +24367,10 @@
         <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -24401,10 +24384,10 @@
         <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -24418,10 +24401,10 @@
         <v>245</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -24435,10 +24418,10 @@
         <v>282</v>
       </c>
       <c r="D21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -24452,10 +24435,10 @@
         <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -24469,9 +24452,26 @@
         <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" t="s">
         <v>699</v>
       </c>
     </row>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11702.06</v>
+        <v>11849.02</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7900.03</v>
+        <v>7941.13</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.73999999999999</v>
+        <v>41.28</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3848.29</v>
+        <v>3896.59</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.7</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1260"/>
+  <dimension ref="A1:E1352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32041,6 +32041,2306 @@
       <c r="E1260" t="inlineStr">
         <is>
           <t>QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），群里发的红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>2022/07/04</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>2022/07/04</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>2022/07/04</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>2022/07/04</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>瞎搞</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>接着昨天的：QQ上有一个人（池江：3344196521）加好友，拉我进群（满面春风），说做抖音点赞任务可以赚钱，我就试了几个，下载了APP华晨媒体，后来又说银行卡转钱68，今天参加了一次，绑定了中国银行银行卡，返回了103，白薅了这些羊毛，类似这种：https://zhuanlan.zhihu.com/p/386091460 【联单任务工资安排如下 1 连续做满1.2.3单工资8元 2 连续做满4.5.6单工资14元 3 连续做满7.8.9单工资18元 4 连续做满10.11.12单工资23元 5 连续做满13.14.15单工资28元 6 连续做满16.17.18单工资38元 注意：(必须连续完任务，中途不可断）中断联系接待员补单，遵守补单规则】</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>2022/07/05</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>2022/07/05</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>2022/07/06</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>2022/07/06</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>2022/07/07</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>2022/07/07</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>2022/07/08</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>2022/07/08</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>2022/07/09</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>2022/07/09</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>2022/07/10</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>2022/07/10</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>2022/07/10</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>瞎搞</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>又一个：QQ上有一个人（璃玥：1724245603）加好友，拉我进群（曲终人散114），说做抖音点赞任务可以赚钱，我就试了几个，下载了APP，绑定了中国银行银行卡，白薅了这些羊毛，类似这种：https://zhuanlan.zhihu.com/p/386091460</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>QQ</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>2022/07/10</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>瞎搞</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>QQ上有一个人（璃玥：1724245603）加好友，拉我进群（曲终人散114），群里发的红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>2022/07/11</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>2022/07/11</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>2022/07/12</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>2022/07/12</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>2022/07/12</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>2022/07/13</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>2022/07/13</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>2022/07/14</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>2022/07/14</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>2022/07/14</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>2022/07/15</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>2022/07/15</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>2022/07/15</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>2022/07/15</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>话费</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>翼支付话费充值</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>2022/07/15</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>翼支付话费充值红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>2022/07/16</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>2022/07/16</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>2022/07/16</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>2022/07/17</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>2022/07/17</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>2022/07/17</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>2022/07/18</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>2022/07/18</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>2022/07/19</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>2022/07/19</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>2022/07/19</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>2022/07/19</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>家庭</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>黄春娇的书：初中基础知识天天背化学中考复习资料口袋书</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>2022/07/20</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>2022/07/20</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>2022/07/20</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>2022/07/21</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>2022/07/21</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>2022/07/21</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>2022/07/22</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>2022/07/22</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>2022/07/22</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>家庭</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>中国移动充值</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>2022/07/23</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>2022/07/23</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>2022/07/23</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>2022/07/23</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>生活</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>强人指甲刀不锈钢套装 强人大号平口【2个】送耳勺（原价4.9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>2022/07/24</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>2022/07/24</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>2022/07/24</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>生活</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>挖球器挖水果球勺子套装多功能火龙果西瓜挖球勺拼盘工具雕花神器 玫红色（原价2.9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>-6</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>交通</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>去郓城贷款（来回车费）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>交通</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>在郓城从交通枢纽-&gt;西关小学（来回车费）（贷款车费）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>交通</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>在郓城从交通枢纽-&gt;汽车站附近（来回车费）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>-13</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>郓城马蕊拉面馆（支付时间：2022年7月25日 12:42:13）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>生活</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>物语本色3包卫生纸实惠装 3包（原价3.1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>2022/07/25</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>京东买的：英菲克（INPHIC）PW1h 有线鼠标 游戏鼠标 轻音鼠标 宏定义 家用笔记本电脑台式USB通用 黑色</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>2022/07/26</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>2022/07/26</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>2022/07/26</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>2022/07/26</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>USB接口分线器笔记本电脑U盘鼠标键盘打印机HUB扩展器多口集线器 独立开关USB【黑色--4口】（原价6.86）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>2022/07/27</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>2022/07/27</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>2022/07/27</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>onedrive扩容15g自己账户微软 自己账户永久扩容至15G（原价3）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>2022/07/28</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>2022/07/28</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>2022/07/28</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>2022/07/29</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>2022/07/29</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>瞎搞</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>微信免费领购物券群里发的红包（真的成功了，两个号领的券买了）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>2022/07/29</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>2022/07/30</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>2022/07/30</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>2022/07/30</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>家庭</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>给妈充话费（134****9901）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>2022/07/30</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>支付宝红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>-11.99</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>2022/07/30</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>话费</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>翼支付话费充值</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>2022/07/30</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>翼支付话费充值红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>2022/07/31</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>2022/07/31</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>在淘宝买的挖耳勺送快递的给整丢了，这是赔付的钱减去实际用的钱0.08（实际只用了0.08元，其他的都是红包顶替的）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>2022/07/31</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>2022/07/31</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
         </is>
       </c>
     </row>
@@ -32676,7 +34976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33596,6 +35896,102 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>80</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022/07/10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>支付宝瞎搞点赞任务，金额中转</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022/07/20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>自动还款-花呗2022年07月账单</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2022/07/22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>挖耳勺（快递弄丢了，在微信上赔付的7月31日）</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022/07/31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,16 @@
       </c>
       <c r="B9" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>中国建设银行余额</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11849.02</v>
+        <v>11949.02</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7941.13</v>
+        <v>8041.13</v>
       </c>
     </row>
     <row r="4">
@@ -34365,7 +34365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34402,86 +34402,86 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5797.65</v>
+        <v>100</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021/11/29</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>贷款</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>贷款扣除学费后反回</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-300</v>
+        <v>5797.65</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021/12/01</t>
+          <t>2021/11/29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>贷款</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>贷款扣除学费后反回</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021/12/03</t>
+          <t>2021/12/01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>报销</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>智能车报销</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-500</v>
+        <v>1200</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -34491,68 +34491,68 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中转</t>
+          <t>报销</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>转账给黄春娇</t>
+          <t>智能车报销</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021/12/04</t>
+          <t>2021/12/03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>中转</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>转账给黄春娇</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2000</v>
+        <v>-100</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021/12/08</t>
+          <t>2021/12/04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>报销</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>智能车报销</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -34561,82 +34561,82 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021/12/10</t>
+          <t>2021/12/08</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>报销</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>情商奖学金</t>
+          <t>智能车报销</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.73</v>
+        <v>1000</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021/12/13</t>
+          <t>2021/12/10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
+          <t>情商奖学金</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1000</v>
+        <v>2.73</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021/12/16</t>
+          <t>2021/12/13</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021.9-2022.1国家助学金</t>
+          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -34646,22 +34646,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>学霸寝室</t>
+          <t>2021.9-2022.1国家助学金</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/01/14</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -34671,13 +34671,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>中远海运科技创新个人</t>
+          <t>学霸寝室</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -34696,13 +34696,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>中远海运奖学金二等</t>
+          <t>中远海运科技创新个人</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5000</v>
+        <v>7000</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -34711,73 +34711,73 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022/01/18</t>
+          <t>2022/01/14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>借还</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>刘彤借钱</t>
+          <t>中远海运奖学金二等</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-100</v>
+        <v>-5000</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022/01/24</t>
+          <t>2022/01/18</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>中转</t>
+          <t>借还</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>转账给黄春娇</t>
+          <t>刘彤借钱</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/01/28</t>
+          <t>2022/01/24</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>中转</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>转账给黄春娇</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100.83</v>
+        <v>-1000</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/03/01</t>
+          <t>2022/01/28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -34796,13 +34796,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.06</v>
+        <v>100.83</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/03/15</t>
+          <t>2022/03/01</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -34821,32 +34821,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
+          <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>200</v>
+        <v>1.06</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/03/24</t>
+          <t>2022/03/15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2022.3国家助学金</t>
+          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
         </is>
       </c>
     </row>
@@ -34861,7 +34861,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/04/13</t>
+          <t>2022/03/24</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -34871,63 +34871,63 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2022.4国家助学金</t>
+          <t>2022.3国家助学金</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2130.1</v>
+        <v>200</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/05/20</t>
+          <t>2022/04/13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>学费</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022届本科生结算学费</t>
+          <t>2022.4国家助学金</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>200</v>
+        <v>-2130.1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/05/23</t>
+          <t>2022/05/20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>学费</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022.5国家助学金</t>
+          <t>2022届本科生结算学费</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/06/16</t>
+          <t>2022/05/23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -34946,30 +34946,55 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022.6-7国家助学金</t>
+          <t>2022.5国家助学金</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>400</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2022/06/16</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>奖助学金</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2022.6-7国家助学金</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>9</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>2022/07/01</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>中转</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>5月23日和6月26日与妈测试转账功能</t>
         </is>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11949.02</v>
+        <v>11849.02</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8041.13</v>
+        <v>7941.13</v>
       </c>
     </row>
     <row r="4">
@@ -34402,7 +34402,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11849.02</v>
+        <v>6474.13</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7941.13</v>
+        <v>4044.38</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.28</v>
+        <v>195.58</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3896.59</v>
+        <v>2018.59</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.64</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>554.0700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -34365,7 +34365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34402,7 +34402,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-3896.75</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -34427,132 +34427,132 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5797.65</v>
+        <v>-154.3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>花呗</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021/11/29</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>贷款</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>贷款扣除学费后反回</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-300</v>
+        <v>-1878</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021/12/01</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1200</v>
+        <v>0.24</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>QQ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021/12/03</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>报销</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>智能车报销</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>邮政储蓄</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021/12/03</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中转</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>转账给黄春娇</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-100</v>
+        <v>0.01</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>农业银行</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021/12/04</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2000</v>
+        <v>-0.16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -34561,173 +34561,173 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021/12/08</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>报销</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>智能车报销</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1000</v>
+        <v>554.0700000000001</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>建设银行</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021/12/10</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>情商奖学金</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.73</v>
+        <v>5797.65</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021/12/13</t>
+          <t>2021/11/29</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>贷款</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
+          <t>贷款扣除学费后反回</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1000</v>
+        <v>-300</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021/12/16</t>
+          <t>2021/12/01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021.9-2022.1国家助学金</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2021/12/03</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>报销</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>学霸寝室</t>
+          <t>智能车报销</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2000</v>
+        <v>-500</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022/01/14</t>
+          <t>2021/12/03</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>中转</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>中远海运科技创新个人</t>
+          <t>转账给黄春娇</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7000</v>
+        <v>-100</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022/01/14</t>
+          <t>2021/12/04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>中远海运奖学金二等</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5000</v>
+        <v>2000</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -34736,48 +34736,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022/01/18</t>
+          <t>2021/12/08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>借还</t>
+          <t>报销</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>刘彤借钱</t>
+          <t>智能车报销</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-100</v>
+        <v>1000</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/01/24</t>
+          <t>2021/12/10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>中转</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>转账给黄春娇</t>
+          <t>情商奖学金</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1000</v>
+        <v>2.73</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/01/28</t>
+          <t>2021/12/13</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -34796,63 +34796,63 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100.83</v>
+        <v>1000</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/03/01</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
+          <t>2021.9-2022.1国家助学金</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.06</v>
+        <v>500</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/03/15</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
+          <t>学霸寝室</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/03/24</t>
+          <t>2022/01/14</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -34871,13 +34871,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2022.3国家助学金</t>
+          <t>中远海运科技创新个人</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/04/13</t>
+          <t>2022/01/14</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -34896,105 +34896,280 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022.4国家助学金</t>
+          <t>中远海运奖学金二等</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2130.1</v>
+        <v>-5000</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/05/20</t>
+          <t>2022/01/18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>学费</t>
+          <t>借还</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022届本科生结算学费</t>
+          <t>刘彤借钱</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/05/23</t>
+          <t>2022/01/24</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>中转</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022.5国家助学金</t>
+          <t>转账给黄春娇</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>400</v>
+        <v>-1000</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/06/16</t>
+          <t>2022/01/28</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2022.6-7国家助学金</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>100.83</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022/03/01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>理财投资</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2022/03/15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>理财投资</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>200</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2022/03/24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>奖助学金</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022.3国家助学金</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>200</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022/04/13</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>奖助学金</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2022.4国家助学金</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-2130.1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2022/05/20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>学费</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2022届本科生结算学费</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>200</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022/05/23</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>奖助学金</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2022.5国家助学金</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>400</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022/06/16</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>奖助学金</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2022.6-7国家助学金</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>9</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>2022/07/01</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>中转</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>5月23日和6月26日与妈测试转账功能</t>
         </is>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6474.13</v>
+        <v>6521.77</v>
       </c>
     </row>
     <row r="3">
@@ -531,6 +531,16 @@
       </c>
       <c r="B10" t="n">
         <v>554.0700000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>47.64</v>
       </c>
     </row>
   </sheetData>
@@ -34365,7 +34375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34602,86 +34612,86 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5797.65</v>
+        <v>47.64</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>校园卡</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021/11/29</t>
+          <t>1999/11/16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>贷款</t>
+          <t>临时</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>贷款扣除学费后反回</t>
+          <t>临时</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-300</v>
+        <v>5797.65</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021/12/01</t>
+          <t>2021/11/29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>贷款</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>贷款扣除学费后反回</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021/12/03</t>
+          <t>2021/12/01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>报销</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>智能车报销</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-500</v>
+        <v>1200</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -34691,68 +34701,68 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>中转</t>
+          <t>报销</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>转账给黄春娇</t>
+          <t>智能车报销</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021/12/04</t>
+          <t>2021/12/03</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>中转</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>转账给黄春娇</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2000</v>
+        <v>-100</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021/12/08</t>
+          <t>2021/12/04</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>报销</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>智能车报销</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -34761,82 +34771,82 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021/12/10</t>
+          <t>2021/12/08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>报销</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>情商奖学金</t>
+          <t>智能车报销</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.73</v>
+        <v>1000</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021/12/13</t>
+          <t>2021/12/10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
+          <t>情商奖学金</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1000</v>
+        <v>2.73</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021/12/16</t>
+          <t>2021/12/13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021.9-2022.1国家助学金</t>
+          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -34846,22 +34856,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>学霸寝室</t>
+          <t>2021.9-2022.1国家助学金</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/01/14</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -34871,13 +34881,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>中远海运科技创新个人</t>
+          <t>学霸寝室</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -34896,13 +34906,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>中远海运奖学金二等</t>
+          <t>中远海运科技创新个人</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5000</v>
+        <v>7000</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -34911,73 +34921,73 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/01/18</t>
+          <t>2022/01/14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>借还</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>刘彤借钱</t>
+          <t>中远海运奖学金二等</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-100</v>
+        <v>-5000</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/01/24</t>
+          <t>2022/01/18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>中转</t>
+          <t>借还</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>转账给黄春娇</t>
+          <t>刘彤借钱</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/01/28</t>
+          <t>2022/01/24</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>理财投资</t>
+          <t>中转</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>转账给黄春娇</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100.83</v>
+        <v>-1000</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -34986,7 +34996,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/03/01</t>
+          <t>2022/01/28</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -34996,13 +35006,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
+          <t>投资</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.06</v>
+        <v>100.83</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -35011,7 +35021,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022/03/15</t>
+          <t>2022/03/01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -35021,32 +35031,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
+          <t>蚂蚁财富-富国安泰90天滚动持有短债债券C-卖出至余额宝</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>200</v>
+        <v>1.06</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022/03/24</t>
+          <t>2022/03/15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>理财投资</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2022.3国家助学金</t>
+          <t>蚂蚁财富-天弘永利债券C-现金分红至余额宝 2022-03-15 11:05:27</t>
         </is>
       </c>
     </row>
@@ -35061,7 +35071,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022/04/13</t>
+          <t>2022/03/24</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -35071,63 +35081,63 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2022.4国家助学金</t>
+          <t>2022.3国家助学金</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2130.1</v>
+        <v>200</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022/05/20</t>
+          <t>2022/04/13</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>学费</t>
+          <t>奖助学金</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022届本科生结算学费</t>
+          <t>2022.4国家助学金</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>200</v>
+        <v>-2130.1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中国银行</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022/05/23</t>
+          <t>2022/05/20</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>奖助学金</t>
+          <t>学费</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022.5国家助学金</t>
+          <t>2022届本科生结算学费</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -35136,7 +35146,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022/06/16</t>
+          <t>2022/05/23</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35146,30 +35156,55 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022.6-7国家助学金</t>
+          <t>2022.5国家助学金</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>400</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>中国银行</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2022/06/16</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>奖助学金</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2022.6-7国家助学金</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>9</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>2022/07/01</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>中转</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>5月23日和6月26日与妈测试转账功能</t>
         </is>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6521.77</v>
+        <v>6496.18</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4044.38</v>
+        <v>4044.69</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.58</v>
+        <v>199.58</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2018.59</v>
+        <v>2018.79</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>554.0700000000001</v>
+        <v>454.07</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.64</v>
+        <v>125.54</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1352"/>
+  <dimension ref="A1:E1359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34361,6 +34361,181 @@
       <c r="E1352" t="inlineStr">
         <is>
           <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>西一一楼风味套餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>果粒橙</t>
         </is>
       </c>
     </row>
@@ -35221,7 +35396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36237,6 +36412,27 @@
       </c>
       <c r="E42" t="inlineStr"/>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>100</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>建设银行</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6496.18</v>
+        <v>6391.27</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4044.69</v>
+        <v>4045.56</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.58</v>
+        <v>233.58</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2018.79</v>
+        <v>2003.81</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>125.54</v>
+        <v>68.73999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1359"/>
+  <dimension ref="A1:E1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34536,6 +34536,531 @@
       <c r="E1359" t="inlineStr">
         <is>
           <t>果粒橙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>-11</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>西一一楼风味套餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>西一二楼风味江浙风味</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>校园卡 西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>美汁源果粒奶优</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>-30</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>生活</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>热水卡充值（洗澡）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>校园卡 西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>西一一楼风味水吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>2023/02/11</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>你好同学外卖：上吉铺黄焖鸡米饭（华科店）</t>
         </is>
       </c>
     </row>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6391.27</v>
+        <v>6348.98</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4045.56</v>
+        <v>4041.85</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.81</v>
+        <v>1980.23</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.73999999999999</v>
+        <v>53.74</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1380"/>
+  <dimension ref="A1:E1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35061,6 +35061,231 @@
       <c r="E1380" t="inlineStr">
         <is>
           <t>你好同学外卖：上吉铺黄焖鸡米饭（华科店）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>2023/02/05</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>大师粥铺（2月12返现的）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>-12</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>同学你好外卖券3张</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>广东烧鹅饭&amp;烧卤饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>-15</v>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>百景一楼老广味道</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>果粒橙</t>
         </is>
       </c>
     </row>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6348.98</v>
+        <v>6349.1</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.58</v>
+        <v>233.46</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1389"/>
+  <dimension ref="A1:E1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35286,6 +35286,31 @@
       <c r="E1389" t="inlineStr">
         <is>
           <t>果粒橙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>2023/02/12</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>支付宝红包</t>
         </is>
       </c>
     </row>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4041.85</v>
+        <v>4045.85</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.46</v>
+        <v>237.46</v>
       </c>
     </row>
     <row r="5">
@@ -35270,7 +35270,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>花呗</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6349.1</v>
+        <v>6284.56</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4045.85</v>
+        <v>4007.82</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.46</v>
+        <v>247.56</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1980.23</v>
+        <v>2007.12</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>454.07</v>
+        <v>354.07</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.74</v>
+        <v>110.44</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1390"/>
+  <dimension ref="A1:E1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35311,6 +35311,506 @@
       <c r="E1390" t="inlineStr">
         <is>
           <t>支付宝红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>果粒橙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>-6</v>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>美团外卖：碗农</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>美团外卖准时宝，未及时送到，补贴2元，现存在美团钱包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>百惠园快餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>2023/02/14</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>2023/02/14</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>2023/02/14</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>百惠园快餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>2023/02/14</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>西二一楼</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>学习</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>打印课程报告（电力电子在电力系统中的应用、电力电子装置及系统的电磁兼容）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>美团外卖：碗农</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>洗衣</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>洗衣：华中科技大学西九舍-西九舍2层东1号机</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>果粒奶优</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>校园卡 西一一楼风味铁板饭</t>
         </is>
       </c>
     </row>
@@ -36171,7 +36671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37208,6 +37708,81 @@
       </c>
       <c r="E43" t="inlineStr"/>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>14</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>外卖霸王餐返利</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>100</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>建设银行</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/02/14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>校园卡充值</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>14</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>外卖霸王餐返利</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6284.56</v>
+        <v>6245.33</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4007.82</v>
+        <v>4008.2</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.56</v>
+        <v>251.56</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2007.12</v>
+        <v>2015.41</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.44</v>
+        <v>66.54000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1410"/>
+  <dimension ref="A1:E1420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34866,7 +34866,7 @@
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>-30</v>
+        <v>-22</v>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>热水卡充值（洗澡）</t>
+          <t>热水卡充值（洗澡）（原本30，隋文奇用了8元，已转到微信）</t>
         </is>
       </c>
     </row>
@@ -35811,6 +35811,256 @@
       <c r="E1410" t="inlineStr">
         <is>
           <t>校园卡 西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1412" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>百惠园快餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1414" t="inlineStr">
+        <is>
+          <t>西二一楼</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1415" t="inlineStr">
+        <is>
+          <t>果粒橙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1417" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1418" t="inlineStr">
+        <is>
+          <t>拼多多</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>西二一楼</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>-12</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>西一二楼风味粤式风味</t>
         </is>
       </c>
     </row>
@@ -36671,7 +36921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37783,6 +38033,31 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>隋文奇用洗澡卡的转钱</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6245.33</v>
+        <v>7021.38</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4008.2</v>
+        <v>3795.4</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.56</v>
+        <v>102.63</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2015.41</v>
+        <v>1997.43</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.07</v>
+        <v>1254.07</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.54000000000001</v>
+        <v>24.44</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1420"/>
+  <dimension ref="A1:E1468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34866,7 +34866,7 @@
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>-22</v>
+        <v>-17</v>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>热水卡充值（洗澡）（原本30，隋文奇用了8元，已转到微信）</t>
+          <t>热水卡充值（洗澡）（原本30，隋文奇用了12元，已转到微信）</t>
         </is>
       </c>
     </row>
@@ -36061,6 +36061,1206 @@
       <c r="E1420" t="inlineStr">
         <is>
           <t>西一二楼风味粤式风味</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>-12.89</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>同学你好外卖</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>生活</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>电费</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>娱乐</t>
+        </is>
+      </c>
+      <c r="E1425" t="inlineStr">
+        <is>
+          <t>虚拟手机号（1美元）ChatGPT注册用。7.13元(1.03美元) 1美元 = 6.92155人民币 sms-activate top up userid 4604615。网站：sms-activate.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1427" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>冰柠檬</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>2023/02/19</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>2023/02/19</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>2023/02/19</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>2023/02/19</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1432" t="inlineStr">
+        <is>
+          <t>橙汁</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>2023/02/19</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>西一一楼风味拉面</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>2023/02/19</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>西一一楼风味煎烙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>美团外卖：秦豫关·河南特色美食店</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>西一一楼风味套餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>橙汁</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>百惠园快餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>-10.62</v>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>美团外卖：鲍记浓汁鸡煲饭（光谷店）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>-11</v>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>西一一楼风味水吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>话费</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>流量卡30G流量费用</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>西一一楼风味水吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>-13.99</v>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>你好同学外卖</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>通用耳机适用OPPO华为小米入耳式vivo高品质吃鸡游戏有线耳塞耳麦 官方标配 无通话/无K歌【普通版】一副</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>淘宝购物红包：通用耳机适用OPPO华为小米入耳式vivo高品质吃鸡游戏有线耳塞耳麦 官方标配 无通话/无K歌【普通版】一副</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>西一一楼风味拉面</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>-6</v>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>2023/02/25</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>西一一楼风味煎烙</t>
         </is>
       </c>
     </row>
@@ -36075,7 +37275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36907,6 +38107,56 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>5月23日和6月26日与妈测试转账功能</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>500</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>建设银行</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023年01月工资（国家补助部分）</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>500</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>建设银行</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023年02月工资（国家补助部分）</t>
         </is>
       </c>
     </row>
@@ -36921,7 +38171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38058,6 +39308,106 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>外卖霸王餐返利：美团外卖：秦豫关·河南特色美食店</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>188.56</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>花呗自动还款-2023年02月账单</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>100</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>建设银行</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>校园卡充值</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>外卖霸王餐返利：美团外卖：鲍记浓汁鸡煲饭（光谷店）</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.63</v>
+        <v>107.63</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1997.43</v>
+        <v>2002.43</v>
       </c>
     </row>
     <row r="6">
@@ -38171,7 +38171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39408,6 +39408,31 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/02/18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>隋文奇用洗澡卡的转钱</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7021.38</v>
+        <v>6748.82</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3795.4</v>
+        <v>3776.28</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.63</v>
+        <v>147.85</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2002.43</v>
+        <v>1864.51</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1254.07</v>
+        <v>1154.07</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.44</v>
+        <v>49.14</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1468"/>
+  <dimension ref="A1:E1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37261,6 +37261,1031 @@
       <c r="E1468" t="inlineStr">
         <is>
           <t>西一一楼风味煎烙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>瞎搞</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>淘宝好评返现：杭州逸品惠信息科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>-12.89</v>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>同学你好外卖</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>-120</v>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>聚会</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>同舟学社（华中）吃饭+KTV（5个人、王光宇、黄以杰、关佳佳、刘才丰、孙越）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>生活</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>12卷卫生纸卷纸擦手纸餐巾纸家用宿舍厕所厕纸家庭卫生间卷筒纸批</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>2023/02/26</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>淘宝购物红包：12卷卫生纸卷纸擦手纸餐巾纸家用宿舍厕所厕纸家庭卫生间卷筒纸批</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>-5.55</v>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>美团外卖：东北饺子馆（光谷店）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>果粒橙</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>薅羊毛</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>微信红包：广东烧鹅饭&amp;华科福利群，陈班长在群里发的红包</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>2023/03/01</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>2023/03/01</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>2023/03/01</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>美团外卖：秦豫关·河南特色美食店</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>2023/03/01</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>西一拉面</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>炒饭 张晚贵</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>冰红茶</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>西二</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>2023/03/04</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>2023/03/04</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>-17.66</v>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>2023/03/04</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>谢谢有你：鱼拿酸菜鱼【鲁巷店】</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>2023/03/04</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>洗衣</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>洗衣：华中科技大学西九舍-西九舍2层东1号机</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>2023/03/04</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>西一一楼风味铁板</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>2023/03/04</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>西一奶茶</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>2023/03/05</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>零钱通收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>2023/03/05</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>理财</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>余额宝收益发放</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>2023/03/05</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>谢谢有你：大师粥铺（鲁巷店）</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>2023/03/05</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>吃饭</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>西一西红柿鸡蛋拉面</t>
         </is>
       </c>
     </row>
@@ -38171,7 +39196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39433,6 +40458,81 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>15</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>外卖霸王餐返利：东北饺子馆（光谷店）</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>100</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>建设银行</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>校园卡</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>校园卡充值</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>14</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>花呗</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/03/01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>外卖霸王餐返利：美团外卖：秦豫关·河南特色美食店</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Money/money.xlsx
+++ b/Money/money.xlsx
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>吃饭</t>
+          <t>聚会</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>吃饭</t>
+          <t>聚会</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>吃饭</t>
+          <t>聚会</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>wolai</t>
+          <t>娱乐</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>吃饭</t>
+          <t>聚会</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
